--- a/peer-assessment-template.xlsx
+++ b/peer-assessment-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data structures\lecture6-main\lecture6-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data structures\lecture7-main\lecture7-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59B14FC-CC88-4971-833C-F0AFEA724CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F395B203-9A71-4FC9-B1BA-463D9AE69AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Points</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -883,6 +886,26 @@
         <v>20</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20</v>
+      </c>
+    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>7</v>
